--- a/bd/fish.xlsx
+++ b/bd/fish.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web заказы\Fishing club Yaz\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A356BCD0-FAD6-4219-99DE-8EDAFCEE2EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC5608-E673-4179-8441-E3067916A822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" xr2:uid="{E877E323-DB88-406A-9D77-C2A6F5CB6CF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E877E323-DB88-406A-9D77-C2A6F5CB6CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>caught</t>
-  </si>
-  <si>
-    <t>stocked</t>
-  </si>
-  <si>
-    <t>chart</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Зарыблено</t>
+  </si>
+  <si>
+    <t>Выловлено</t>
+  </si>
+  <si>
+    <t>График</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>День недели</t>
+  </si>
+  <si>
+    <t>07.08</t>
+  </si>
+  <si>
+    <t>06.08</t>
+  </si>
+  <si>
+    <t>05.08</t>
+  </si>
+  <si>
+    <t>04.08</t>
+  </si>
+  <si>
+    <t>03.08</t>
+  </si>
+  <si>
+    <t>02.08</t>
+  </si>
+  <si>
+    <t>01.08</t>
+  </si>
+  <si>
+    <t>понедельник</t>
+  </si>
+  <si>
+    <t>воскресенье</t>
+  </si>
+  <si>
+    <t>суббота</t>
+  </si>
+  <si>
+    <t>пятница</t>
+  </si>
+  <si>
+    <t>четверг</t>
+  </si>
+  <si>
+    <t>среда</t>
+  </si>
+  <si>
+    <t>вторник</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="167" formatCode="dddd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,11 +163,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -425,127 +517,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C5559C-2B20-496A-8ECD-BF38D55AB6E8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11">
         <v>1764</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>764</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>478</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12">
         <v>2627</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>456</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>214</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11">
         <v>1648</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>541</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>698</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
         <v>2148</v>
       </c>
-      <c r="C5" s="3">
+      <c r="E5" s="3">
         <v>236</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>874</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11">
         <v>1487</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>514</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>632</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12">
         <v>1987</v>
       </c>
-      <c r="C7" s="3">
+      <c r="E7" s="3">
         <v>236</v>
       </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
         <v>589</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11">
         <v>1248</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>478</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>651</v>
       </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bd/fish.xlsx
+++ b/bd/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web заказы\Fishing club Yaz\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praim\Downloads\group\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC5608-E673-4179-8441-E3067916A822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F1A35-1292-4FB8-9C97-6ADD47239C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E877E323-DB88-406A-9D77-C2A6F5CB6CF1}"/>
+    <workbookView xWindow="8340" yWindow="6684" windowWidth="19644" windowHeight="10836" xr2:uid="{E877E323-DB88-406A-9D77-C2A6F5CB6CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Зарыблено</t>
   </si>
@@ -33,69 +42,62 @@
     <t>Выловлено</t>
   </si>
   <si>
-    <t>График</t>
+    <t>Общее значение</t>
+  </si>
+  <si>
+    <t>День</t>
   </si>
   <si>
     <t>Дата</t>
   </si>
   <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>День недели</t>
-  </si>
-  <si>
-    <t>07.08</t>
-  </si>
-  <si>
-    <t>06.08</t>
-  </si>
-  <si>
-    <t>05.08</t>
-  </si>
-  <si>
-    <t>04.08</t>
-  </si>
-  <si>
-    <t>03.08</t>
-  </si>
-  <si>
-    <t>02.08</t>
-  </si>
-  <si>
-    <t>01.08</t>
-  </si>
-  <si>
-    <t>понедельник</t>
-  </si>
-  <si>
-    <t>воскресенье</t>
-  </si>
-  <si>
-    <t>суббота</t>
-  </si>
-  <si>
-    <t>пятница</t>
-  </si>
-  <si>
-    <t>четверг</t>
-  </si>
-  <si>
-    <t>среда</t>
-  </si>
-  <si>
-    <t>вторник</t>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>10.06</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>11.08</t>
+  </si>
+  <si>
+    <t>11.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
-    <numFmt numFmtId="167" formatCode="dddd"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +106,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,14 +139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,65 +167,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Акцент6" xfId="1" builtinId="49"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -517,21 +497,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C5559C-2B20-496A-8ECD-BF38D55AB6E8}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -539,171 +523,146 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C7" si="0">C3+D2-E2</f>
+        <v>3259</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1240</v>
+      </c>
+      <c r="E2" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+      <c r="D3" s="1">
+        <v>756</v>
+      </c>
+      <c r="E3" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>2128</v>
+      </c>
+      <c r="D4" s="1">
+        <v>636</v>
+      </c>
+      <c r="E4" s="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>2081</v>
+      </c>
+      <c r="D5" s="1">
+        <v>340</v>
+      </c>
+      <c r="E5" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1436</v>
+      </c>
+      <c r="E6" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11">
-        <v>1764</v>
-      </c>
-      <c r="E2" s="1">
-        <v>764</v>
-      </c>
-      <c r="F2" s="1">
-        <v>478</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1424</v>
+      </c>
+      <c r="D7" s="1">
+        <v>514</v>
+      </c>
+      <c r="E7" s="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2627</v>
-      </c>
-      <c r="E3" s="3">
-        <v>456</v>
-      </c>
-      <c r="F3" s="3">
-        <v>214</v>
-      </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1648</v>
-      </c>
-      <c r="E4" s="1">
-        <v>541</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C8" s="1">
+        <f>D8-E8</f>
+        <v>1542</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2240</v>
+      </c>
+      <c r="E8" s="1">
         <v>698</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2148</v>
-      </c>
-      <c r="E5" s="3">
-        <v>236</v>
-      </c>
-      <c r="F5" s="3">
-        <v>874</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1487</v>
-      </c>
-      <c r="E6" s="1">
-        <v>514</v>
-      </c>
-      <c r="F6" s="1">
-        <v>632</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1987</v>
-      </c>
-      <c r="E7" s="3">
-        <v>236</v>
-      </c>
-      <c r="F7" s="3">
-        <v>589</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1248</v>
-      </c>
-      <c r="E8" s="1">
-        <v>478</v>
-      </c>
-      <c r="F8" s="1">
-        <v>651</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L9" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition descending="1" ref="B2:B8"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
